--- a/2023_elec_percentages.xlsx
+++ b/2023_elec_percentages.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benstanley/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benstanley/R scripts/Pooling the Poles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1D305D-D0E2-8E45-9AF6-436EC885466A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051A9DFE-3DCE-EB41-82ED-760FE23208E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="740" windowWidth="29160" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,9 +74,6 @@
     <t>Konfcoef</t>
   </si>
   <si>
-    <t>Kocoef</t>
-  </si>
-  <si>
     <t>TDproc</t>
   </si>
   <si>
@@ -89,7 +86,10 @@
     <t>PiSproc</t>
   </si>
   <si>
-    <t>Koproc</t>
+    <t>KOcoef</t>
+  </si>
+  <si>
+    <t>KOproc</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
   <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -483,16 +483,16 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>18</v>
@@ -510,7 +510,7 @@
         <v>12</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -521,31 +521,31 @@
         <v>460</v>
       </c>
       <c r="C2">
-        <f>SUM(C3:C43)</f>
+        <f t="shared" ref="C2:I2" si="0">SUM(C3:C43)</f>
         <v>29532595</v>
       </c>
       <c r="D2">
-        <f>SUM(D3:D43)</f>
+        <f t="shared" si="0"/>
         <v>21596674</v>
       </c>
       <c r="E2">
-        <f>SUM(E3:E43)</f>
+        <f t="shared" si="0"/>
         <v>3110670</v>
       </c>
       <c r="F2">
-        <f>SUM(F3:F43)</f>
+        <f t="shared" si="0"/>
         <v>1859018</v>
       </c>
       <c r="G2">
-        <f>SUM(G3:G43)</f>
+        <f t="shared" si="0"/>
         <v>7640854</v>
       </c>
       <c r="H2">
-        <f>SUM(H3:H43)</f>
+        <f t="shared" si="0"/>
         <v>1547364</v>
       </c>
       <c r="I2">
-        <f>SUM(I3:I43)</f>
+        <f t="shared" si="0"/>
         <v>6629402</v>
       </c>
       <c r="J2" s="2">
@@ -884,23 +884,23 @@
         <v>29.52</v>
       </c>
       <c r="O7" s="2">
-        <f t="shared" ref="O7:O43" si="0">SUM((100/$J$2)*J7)/100</f>
+        <f t="shared" ref="O7:O43" si="1">SUM((100/$J$2)*J7)/100</f>
         <v>1.0886267213172724</v>
       </c>
       <c r="P7" s="2">
-        <f t="shared" ref="P7:P43" si="1">SUM((100/$K$2)*K7)/100</f>
+        <f t="shared" ref="P7:P43" si="2">SUM((100/$K$2)*K7)/100</f>
         <v>1.3069404518944947</v>
       </c>
       <c r="Q7" s="2">
-        <f t="shared" ref="Q7:Q43" si="2">SUM((100/$L$2)*L7)/100</f>
+        <f t="shared" ref="Q7:Q43" si="3">SUM((100/$L$2)*L7)/100</f>
         <v>0.96269699229955175</v>
       </c>
       <c r="R7" s="2">
-        <f t="shared" ref="R7:R43" si="3">SUM((100/$M$2)*M7)/100</f>
+        <f t="shared" ref="R7:R43" si="4">SUM((100/$M$2)*M7)/100</f>
         <v>0.889065619854152</v>
       </c>
       <c r="S7" s="2">
-        <f t="shared" ref="S7:S43" si="4">SUM((100/$N$2)*N7)/100</f>
+        <f t="shared" ref="S7:S43" si="5">SUM((100/$N$2)*N7)/100</f>
         <v>0.96167620620985117</v>
       </c>
     </row>
@@ -948,23 +948,23 @@
         <v>20.32</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1018179889862956</v>
       </c>
       <c r="P8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.66450661198546757</v>
       </c>
       <c r="Q8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.285480305630758</v>
       </c>
       <c r="R8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1696028091644888</v>
       </c>
       <c r="S8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.66196681945068347</v>
       </c>
     </row>
@@ -1012,23 +1012,23 @@
         <v>17.399999999999999</v>
       </c>
       <c r="O9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.90533752844242554</v>
       </c>
       <c r="P9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.65288936352418314</v>
       </c>
       <c r="Q9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4344354773694143</v>
       </c>
       <c r="R9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0872560720037432</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.56684166626190413</v>
       </c>
     </row>
@@ -1076,23 +1076,23 @@
         <v>37.729999999999997</v>
       </c>
       <c r="O10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0462758093272511</v>
       </c>
       <c r="P10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0769189323610635</v>
       </c>
       <c r="Q10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.78462913993645211</v>
       </c>
       <c r="R10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.90860552358721025</v>
       </c>
       <c r="S10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2291342567851518</v>
       </c>
     </row>
@@ -1140,23 +1140,23 @@
         <v>41.07</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.82549564518254914</v>
       </c>
       <c r="P11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4196277619689532</v>
       </c>
       <c r="Q11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.75806028577433882</v>
       </c>
       <c r="R11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.77740902709381898</v>
       </c>
       <c r="S11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3379417950216324</v>
       </c>
     </row>
@@ -1204,23 +1204,23 @@
         <v>21.69</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.95324265839835154</v>
       </c>
       <c r="P12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.74234217667607294</v>
       </c>
       <c r="Q12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3171368127175314</v>
       </c>
       <c r="R12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0635290460421722</v>
       </c>
       <c r="S12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.70659745639199434</v>
       </c>
     </row>
@@ -1268,23 +1268,23 @@
         <v>25.89</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0067020063201817</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.89801330605728391</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1718560569800183</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.95187245328183934</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.84342130686900563</v>
       </c>
     </row>
@@ -1332,23 +1332,23 @@
         <v>24.24</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0393330368698706</v>
       </c>
       <c r="P14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.70168180706157757</v>
       </c>
       <c r="Q14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2114266908384848</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0998174386892807</v>
       </c>
       <c r="S14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.78966907989589397</v>
       </c>
     </row>
@@ -1396,23 +1396,23 @@
         <v>30.73</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.170551436314363</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2825442301257974</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.86716217626982528</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0760904127277098</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0010945059901331</v>
       </c>
     </row>
@@ -1460,23 +1460,23 @@
         <v>16.100000000000001</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.80397305056466939</v>
       </c>
       <c r="P16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36942850106884384</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5186643980110075</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2184525684971346</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.52449142682854355</v>
       </c>
     </row>
@@ -1524,23 +1524,23 @@
         <v>17.02</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.294132786055737</v>
       </c>
       <c r="P17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.46468993845137591</v>
       </c>
       <c r="Q17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3756448213511212</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1151702201938263</v>
       </c>
       <c r="S17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.55446236550446026</v>
       </c>
     </row>
@@ -1588,23 +1588,23 @@
         <v>22.4</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1851312584748623</v>
       </c>
       <c r="P18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.75744459967574274</v>
       </c>
       <c r="Q18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2467576139264012</v>
       </c>
       <c r="R18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.91000123099671426</v>
       </c>
       <c r="S18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.72972720254406043</v>
       </c>
     </row>
@@ -1652,23 +1652,23 @@
         <v>20.96</v>
       </c>
       <c r="O19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.97059958954180292</v>
       </c>
       <c r="P19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.62036106783258682</v>
       </c>
       <c r="Q19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3759274687358245</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0202621163475432</v>
       </c>
       <c r="S19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.68281616809479961</v>
       </c>
     </row>
@@ -1716,23 +1716,23 @@
         <v>18.71</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0768240081397256</v>
       </c>
       <c r="P20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.56343655037229323</v>
       </c>
       <c r="Q20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3742315844276043</v>
       </c>
       <c r="R20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1458757832029181</v>
       </c>
       <c r="S20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.6095176767678292</v>
       </c>
     </row>
@@ -1780,23 +1780,23 @@
         <v>43.23</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.91991735060292468</v>
       </c>
       <c r="P21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5625199180427516</v>
       </c>
       <c r="Q21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.56925183279251246</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0104921644810141</v>
       </c>
       <c r="S21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.408308346695524</v>
       </c>
     </row>
@@ -1844,23 +1844,23 @@
         <v>35.229999999999997</v>
       </c>
       <c r="O22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0455815320815129</v>
       </c>
       <c r="P22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.82017774136667843</v>
       </c>
       <c r="Q22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.89712279904837855</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.98536943110993913</v>
       </c>
       <c r="S22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1476914886440737</v>
       </c>
     </row>
@@ -1908,23 +1908,23 @@
         <v>33.590000000000003</v>
       </c>
       <c r="O23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.88450921107028391</v>
       </c>
       <c r="P23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.84108878859699032</v>
       </c>
       <c r="Q23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.88355572458261866</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.90581410876820201</v>
       </c>
       <c r="S23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0942650327435266</v>
       </c>
     </row>
@@ -1972,23 +1972,23 @@
         <v>15.85</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.95740832187277969</v>
       </c>
       <c r="P24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.51929100621941249</v>
       </c>
       <c r="Q24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.546081194327231</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2030997869925886</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.51634715001443565</v>
       </c>
     </row>
@@ -2036,23 +2036,23 @@
         <v>17.7</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.86229233920666604</v>
       </c>
       <c r="P25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.56576000006455018</v>
       </c>
       <c r="Q25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4584605050691977</v>
       </c>
       <c r="R25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3231306242099468</v>
       </c>
       <c r="S25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.57661479843883345</v>
       </c>
     </row>
@@ -2100,23 +2100,23 @@
         <v>20.84</v>
       </c>
       <c r="O26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3094068854619743</v>
       </c>
       <c r="P26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.56227482552616481</v>
       </c>
       <c r="Q26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1981422637574282</v>
       </c>
       <c r="R26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3663975539045756</v>
       </c>
       <c r="S26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.6789069152240278</v>
       </c>
     </row>
@@ -2164,23 +2164,23 @@
         <v>41.7</v>
       </c>
       <c r="O27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0205875512349429</v>
       </c>
       <c r="P27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0931830802068618</v>
       </c>
       <c r="Q27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.71227140945239886</v>
       </c>
       <c r="R27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.86952571612109364</v>
       </c>
       <c r="S27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3584653725931841</v>
       </c>
     </row>
@@ -2228,23 +2228,23 @@
         <v>37.909999999999997</v>
       </c>
       <c r="O28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.94352277695801878</v>
       </c>
       <c r="P28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96771679682499023</v>
       </c>
       <c r="Q28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.82646095287254528</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0063050422525017</v>
       </c>
       <c r="S28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2349981360913094</v>
       </c>
     </row>
@@ -2292,23 +2292,23 @@
         <v>28.67</v>
       </c>
       <c r="O29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0101733925488723</v>
       </c>
       <c r="P29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.9026602054417977</v>
       </c>
       <c r="Q29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.037598549245935</v>
       </c>
       <c r="R29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0942346090512638</v>
       </c>
       <c r="S29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.93398566504188463</v>
       </c>
     </row>
@@ -2356,23 +2356,23 @@
         <v>29.11</v>
       </c>
       <c r="O30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0219761057264192</v>
       </c>
       <c r="P30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0931830802068618</v>
       </c>
       <c r="Q30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0274232433966151</v>
       </c>
       <c r="R30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.91558406063473097</v>
       </c>
       <c r="S30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.94831959223471429</v>
       </c>
     </row>
@@ -2420,23 +2420,23 @@
         <v>36.06</v>
       </c>
       <c r="O31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.92616584581456718</v>
       </c>
       <c r="P31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0699485832842932</v>
       </c>
       <c r="Q31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.85246451226525199</v>
       </c>
       <c r="R31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.97001664960539347</v>
       </c>
       <c r="S31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1747304876669118</v>
       </c>
     </row>
@@ -2484,23 +2484,23 @@
         <v>29.98</v>
       </c>
       <c r="O32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.86437517094388017</v>
       </c>
       <c r="P32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.79461979475185274</v>
       </c>
       <c r="Q32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.075755946180885</v>
       </c>
       <c r="R32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1165659276033306</v>
       </c>
       <c r="S32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.97666167554780958</v>
       </c>
     </row>
@@ -2548,23 +2548,23 @@
         <v>36.79</v>
       </c>
       <c r="O33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.9213059050944008</v>
       </c>
       <c r="P33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.98281921982466014</v>
       </c>
       <c r="Q33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.87281512396389194</v>
       </c>
       <c r="R33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.93512396436778944</v>
       </c>
       <c r="S33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1985117759641064</v>
       </c>
     </row>
@@ -2612,23 +2612,23 @@
         <v>30.3</v>
       </c>
       <c r="O34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.68386308705198562</v>
       </c>
       <c r="P34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5093256676374303</v>
       </c>
       <c r="Q34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.84059332210771187</v>
       </c>
       <c r="R34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.79415751600786888</v>
       </c>
       <c r="S34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.98708634986986754</v>
       </c>
     </row>
@@ -2676,23 +2676,23 @@
         <v>20.93</v>
       </c>
       <c r="O35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.95810259911851792</v>
       </c>
       <c r="P35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.79345806990572443</v>
       </c>
       <c r="Q35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.330421239798588</v>
       </c>
       <c r="R35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.91418835322522685</v>
       </c>
       <c r="S35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.68183885487710649</v>
       </c>
     </row>
@@ -2740,23 +2740,23 @@
         <v>31.87</v>
       </c>
       <c r="O36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0691869584366069</v>
       </c>
       <c r="P36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.94215885021016466</v>
       </c>
       <c r="Q36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.99491879415573181</v>
       </c>
       <c r="R36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.91279264581572273</v>
       </c>
       <c r="S36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0382324082624645</v>
       </c>
     </row>
@@ -2804,23 +2804,23 @@
         <v>33.07</v>
       </c>
       <c r="O37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1184806428840088</v>
       </c>
       <c r="P37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.9398354005179077</v>
       </c>
       <c r="Q37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.91379899474587523</v>
       </c>
       <c r="R37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.96722523478638511</v>
       </c>
       <c r="S37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0773249369701821</v>
       </c>
     </row>
@@ -2868,23 +2868,23 @@
         <v>28.58</v>
       </c>
       <c r="O38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1219520291126992</v>
       </c>
       <c r="P38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.98978956890143066</v>
       </c>
       <c r="Q38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0132908741614484</v>
       </c>
       <c r="R38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.97420377183390594</v>
       </c>
       <c r="S38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.93105372538880571</v>
       </c>
     </row>
@@ -2932,23 +2932,23 @@
         <v>23.99</v>
       </c>
       <c r="O39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1545830596623878</v>
       </c>
       <c r="P39" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1013151541297608</v>
       </c>
       <c r="Q39" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0935627314171947</v>
       </c>
       <c r="R39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.97280806442440171</v>
       </c>
       <c r="S39" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.78152480308178629</v>
       </c>
     </row>
@@ -2996,23 +2996,23 @@
         <v>34.869999999999997</v>
       </c>
       <c r="O40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2260936159734077</v>
       </c>
       <c r="P40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.91079227936469676</v>
       </c>
       <c r="Q40" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.82278653687140202</v>
       </c>
       <c r="R40" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.95885099032936016</v>
       </c>
       <c r="S40" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1359637300317584</v>
       </c>
     </row>
@@ -3060,23 +3060,23 @@
         <v>44.09</v>
       </c>
       <c r="O41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1483345644507452</v>
       </c>
       <c r="P41" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4300832855841095</v>
       </c>
       <c r="Q41" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.55314093186442248</v>
       </c>
       <c r="R41" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.82346737160745631</v>
       </c>
       <c r="S41" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4363246589360548</v>
       </c>
     </row>
@@ -3124,23 +3124,23 @@
         <v>38.69</v>
       </c>
       <c r="O42" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.85743239848649966</v>
       </c>
       <c r="P42" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0130240658239995</v>
       </c>
       <c r="Q42" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.88638219842965182</v>
       </c>
       <c r="R42" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.84021586052150621</v>
       </c>
       <c r="S42" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2604082797513259</v>
       </c>
     </row>
@@ -3188,23 +3188,23 @@
         <v>40.130000000000003</v>
       </c>
       <c r="O43" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.87617788412142716</v>
       </c>
       <c r="P43" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.090859630514605</v>
       </c>
       <c r="Q43" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.81374182056089539</v>
       </c>
       <c r="R43" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.82905020124547291</v>
       </c>
       <c r="S43" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3073193142005872</v>
       </c>
     </row>
